--- a/Graphs/Team Market Size/mlb_team_market-size.xlsx
+++ b/Graphs/Team Market Size/mlb_team_market-size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benplatt/Desktop/programming/github_repositories/Senior-Project/Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE265D4-3617-2A4D-850E-943207EEDED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D08E50-6CC9-6146-A166-AE312830103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{291DC414-2130-FA4D-8099-878BCD58DE54}"/>
   </bookViews>
